--- a/N4.xlsx
+++ b/N4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Codigo da Disciplina</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Nota 2</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>321</t>
   </si>
 </sst>
 </file>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,6 +423,20 @@
         <v>8.1</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/N4.xlsx
+++ b/N4.xlsx
@@ -28,10 +28,10 @@
     <t>Nota 2</t>
   </si>
   <si>
-    <t>333</t>
-  </si>
-  <si>
-    <t>321</t>
+    <t>456</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,31 +410,17 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
-        <v>999</v>
-      </c>
-      <c r="B2">
-        <v>321</v>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/N4.xlsx
+++ b/N4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Codigo da Disciplina</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>456</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
 </sst>
 </file>
@@ -389,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,13 +410,27 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="B2">
+        <v>123</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>158</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
         <v>10</v>
       </c>
     </row>
